--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Gamma2F-HW40.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="Gamma2F" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>HKL</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +949,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9902919605113799</v>
+        <v>0.9902919605113798</v>
       </c>
       <c r="D13">
         <v>0.9915977648388012</v>
@@ -958,7 +958,7 @@
         <v>0.9911008089428689</v>
       </c>
       <c r="F13">
-        <v>0.9902919605113799</v>
+        <v>0.9902919605113798</v>
       </c>
       <c r="G13">
         <v>0.9905667306928275</v>
@@ -1031,7 +1031,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9888161938134854</v>
+        <v>0.9888161938134855</v>
       </c>
       <c r="D15">
         <v>1.004513349273281</v>
@@ -1040,7 +1040,7 @@
         <v>0.9886897954349229</v>
       </c>
       <c r="F15">
-        <v>0.9888161938134854</v>
+        <v>0.9888161938134855</v>
       </c>
       <c r="G15">
         <v>0.9993333435874322</v>
@@ -1058,10 +1058,51 @@
         <v>0.9966015723541017</v>
       </c>
       <c r="L15">
-        <v>0.9927088830837936</v>
+        <v>0.9927088830837937</v>
       </c>
       <c r="M15">
         <v>0.9916908493798487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>0.9997970327128718</v>
+      </c>
+      <c r="D16">
+        <v>0.9697660149721196</v>
+      </c>
+      <c r="E16">
+        <v>0.9997385364559017</v>
+      </c>
+      <c r="F16">
+        <v>0.9997970327128718</v>
+      </c>
+      <c r="G16">
+        <v>0.9699415614231334</v>
+      </c>
+      <c r="H16">
+        <v>1.001031999558077</v>
+      </c>
+      <c r="I16">
+        <v>0.9941468951873086</v>
+      </c>
+      <c r="J16">
+        <v>0.9697660149721196</v>
+      </c>
+      <c r="K16">
+        <v>0.9847522757140106</v>
+      </c>
+      <c r="L16">
+        <v>0.9922746542134413</v>
+      </c>
+      <c r="M16">
+        <v>0.9890703400515687</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -498,37 +501,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1069,7 +1072,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>0.9997970327128718</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
@@ -952,7 +952,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9902919605113798</v>
+        <v>0.9902919605113799</v>
       </c>
       <c r="D13">
         <v>0.9915977648388012</v>
@@ -961,7 +961,7 @@
         <v>0.9911008089428689</v>
       </c>
       <c r="F13">
-        <v>0.9902919605113798</v>
+        <v>0.9902919605113799</v>
       </c>
       <c r="G13">
         <v>0.9905667306928275</v>
@@ -1034,7 +1034,7 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9888161938134855</v>
+        <v>0.9888161938134854</v>
       </c>
       <c r="D15">
         <v>1.004513349273281</v>
@@ -1043,7 +1043,7 @@
         <v>0.9886897954349229</v>
       </c>
       <c r="F15">
-        <v>0.9888161938134855</v>
+        <v>0.9888161938134854</v>
       </c>
       <c r="G15">
         <v>0.9993333435874322</v>
@@ -1061,7 +1061,7 @@
         <v>0.9966015723541017</v>
       </c>
       <c r="L15">
-        <v>0.9927088830837937</v>
+        <v>0.9927088830837936</v>
       </c>
       <c r="M15">
         <v>0.9916908493798487</v>

--- a/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/Gamma2F-HW40.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
@@ -449,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -501,37 +510,37 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -829,37 +838,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9968679999999996</v>
+        <v>0.9997970327128718</v>
       </c>
       <c r="D10">
-        <v>0.9312400000000003</v>
+        <v>0.9697660149721196</v>
       </c>
       <c r="E10">
-        <v>0.9981239999999998</v>
+        <v>0.9997385364559017</v>
       </c>
       <c r="F10">
-        <v>0.9968679999999996</v>
+        <v>0.9997970327128718</v>
       </c>
       <c r="G10">
-        <v>0.9341439999999996</v>
+        <v>0.9699415614231334</v>
       </c>
       <c r="H10">
-        <v>1.053979999999997</v>
+        <v>1.001031999558077</v>
       </c>
       <c r="I10">
-        <v>0.9972920000000007</v>
+        <v>0.9941468951873086</v>
       </c>
       <c r="J10">
-        <v>0.9312400000000003</v>
+        <v>0.9697660149721196</v>
       </c>
       <c r="K10">
-        <v>0.964682</v>
+        <v>0.9847522757140106</v>
       </c>
       <c r="L10">
-        <v>0.9807749999999998</v>
+        <v>0.9922746542134413</v>
       </c>
       <c r="M10">
-        <v>0.9852746666666663</v>
+        <v>0.9890703400515687</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -870,37 +879,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.9927734059709842</v>
       </c>
       <c r="D11">
-        <v>0.89</v>
+        <v>0.9792377000105068</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.9947802115617808</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.9927734059709842</v>
       </c>
       <c r="G11">
-        <v>0.89</v>
+        <v>0.9835745737898508</v>
       </c>
       <c r="H11">
-        <v>1.1</v>
+        <v>1.000151500738855</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0.9941399773397617</v>
       </c>
       <c r="J11">
-        <v>0.89</v>
+        <v>0.9792377000105068</v>
       </c>
       <c r="K11">
-        <v>0.9450000000000001</v>
+        <v>0.9870089557861438</v>
       </c>
       <c r="L11">
-        <v>0.9725</v>
+        <v>0.9898911808785639</v>
       </c>
       <c r="M11">
-        <v>0.9800000000000001</v>
+        <v>0.9907762282352898</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -911,37 +920,37 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9968750080000031</v>
+        <v>0.992738379315072</v>
       </c>
       <c r="D12">
-        <v>0.9313359026175959</v>
+        <v>0.9792811162232559</v>
       </c>
       <c r="E12">
-        <v>0.9981250047999984</v>
+        <v>0.9947869749823363</v>
       </c>
       <c r="F12">
-        <v>0.9968750080000031</v>
+        <v>0.992738379315072</v>
       </c>
       <c r="G12">
-        <v>0.9343079706624027</v>
+        <v>0.9836817641425833</v>
       </c>
       <c r="H12">
-        <v>1.053958451199999</v>
+        <v>1.000159340623365</v>
       </c>
       <c r="I12">
-        <v>0.9972916736000018</v>
+        <v>0.9941451741110581</v>
       </c>
       <c r="J12">
-        <v>0.9313359026175959</v>
+        <v>0.9792811162232559</v>
       </c>
       <c r="K12">
-        <v>0.9647304537087972</v>
+        <v>0.9870340456027961</v>
       </c>
       <c r="L12">
-        <v>0.9808027308544002</v>
+        <v>0.989886212458934</v>
       </c>
       <c r="M12">
-        <v>0.9853156684800002</v>
+        <v>0.9907987915662785</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -952,37 +961,37 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9902919605113799</v>
+        <v>0.9927766999458111</v>
       </c>
       <c r="D13">
-        <v>0.9915977648388012</v>
+        <v>0.9792165617903996</v>
       </c>
       <c r="E13">
-        <v>0.9911008089428689</v>
+        <v>0.9948272211591419</v>
       </c>
       <c r="F13">
-        <v>0.9902919605113799</v>
+        <v>0.9927766999458111</v>
       </c>
       <c r="G13">
-        <v>0.9905667306928275</v>
+        <v>0.9836404378631705</v>
       </c>
       <c r="H13">
-        <v>0.9900085496758524</v>
+        <v>1.000160864735405</v>
       </c>
       <c r="I13">
-        <v>0.9912254889994491</v>
+        <v>0.994161525821143</v>
       </c>
       <c r="J13">
-        <v>0.9915977648388012</v>
+        <v>0.9792165617903996</v>
       </c>
       <c r="K13">
-        <v>0.9913492868908351</v>
+        <v>0.9870218914747708</v>
       </c>
       <c r="L13">
-        <v>0.9908206237011075</v>
+        <v>0.989899295710291</v>
       </c>
       <c r="M13">
-        <v>0.9907985506101964</v>
+        <v>0.9907972185525119</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -993,37 +1002,37 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9893510595467532</v>
+        <v>0.9968679999999996</v>
       </c>
       <c r="D14">
-        <v>0.9980347295543945</v>
+        <v>0.9312400000000003</v>
       </c>
       <c r="E14">
-        <v>0.9910885936214049</v>
+        <v>0.9981239999999998</v>
       </c>
       <c r="F14">
-        <v>0.9893510595467532</v>
+        <v>0.9968679999999996</v>
       </c>
       <c r="G14">
-        <v>0.9923287446189193</v>
+        <v>0.9341439999999996</v>
       </c>
       <c r="H14">
-        <v>0.9846493877629974</v>
+        <v>1.053979999999997</v>
       </c>
       <c r="I14">
-        <v>0.9902983081668018</v>
+        <v>0.9972920000000007</v>
       </c>
       <c r="J14">
-        <v>0.9980347295543945</v>
+        <v>0.9312400000000003</v>
       </c>
       <c r="K14">
-        <v>0.9945616615878997</v>
+        <v>0.964682</v>
       </c>
       <c r="L14">
-        <v>0.9919563605673265</v>
+        <v>0.9807749999999998</v>
       </c>
       <c r="M14">
-        <v>0.9909584705452117</v>
+        <v>0.9852746666666663</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1034,37 +1043,37 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9888161938134854</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>1.004513349273281</v>
+        <v>0.89</v>
       </c>
       <c r="E15">
-        <v>0.9886897954349229</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.9888161938134854</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9993333435874322</v>
+        <v>0.89</v>
       </c>
       <c r="H15">
-        <v>0.9801588706975204</v>
+        <v>1.1</v>
       </c>
       <c r="I15">
-        <v>0.9886335434724505</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>1.004513349273281</v>
+        <v>0.89</v>
       </c>
       <c r="K15">
-        <v>0.9966015723541017</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="L15">
-        <v>0.9927088830837936</v>
+        <v>0.9725</v>
       </c>
       <c r="M15">
-        <v>0.9916908493798487</v>
+        <v>0.9800000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1075,37 +1084,160 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9997970327128718</v>
+        <v>0.9968750080000031</v>
       </c>
       <c r="D16">
-        <v>0.9697660149721196</v>
+        <v>0.9313359026175959</v>
       </c>
       <c r="E16">
-        <v>0.9997385364559017</v>
+        <v>0.9981250047999984</v>
       </c>
       <c r="F16">
-        <v>0.9997970327128718</v>
+        <v>0.9968750080000031</v>
       </c>
       <c r="G16">
-        <v>0.9699415614231334</v>
+        <v>0.9343079706624027</v>
       </c>
       <c r="H16">
-        <v>1.001031999558077</v>
+        <v>1.053958451199999</v>
       </c>
       <c r="I16">
-        <v>0.9941468951873086</v>
+        <v>0.9972916736000018</v>
       </c>
       <c r="J16">
-        <v>0.9697660149721196</v>
+        <v>0.9313359026175959</v>
       </c>
       <c r="K16">
-        <v>0.9847522757140106</v>
+        <v>0.9647304537087972</v>
       </c>
       <c r="L16">
-        <v>0.9922746542134413</v>
+        <v>0.9808027308544002</v>
       </c>
       <c r="M16">
-        <v>0.9890703400515687</v>
+        <v>0.9853156684800002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9902919605113798</v>
+      </c>
+      <c r="D17">
+        <v>0.9915977648388012</v>
+      </c>
+      <c r="E17">
+        <v>0.9911008089428689</v>
+      </c>
+      <c r="F17">
+        <v>0.9902919605113798</v>
+      </c>
+      <c r="G17">
+        <v>0.9905667306928275</v>
+      </c>
+      <c r="H17">
+        <v>0.9900085496758524</v>
+      </c>
+      <c r="I17">
+        <v>0.9912254889994491</v>
+      </c>
+      <c r="J17">
+        <v>0.9915977648388012</v>
+      </c>
+      <c r="K17">
+        <v>0.9913492868908351</v>
+      </c>
+      <c r="L17">
+        <v>0.9908206237011075</v>
+      </c>
+      <c r="M17">
+        <v>0.9907985506101964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9893510595467532</v>
+      </c>
+      <c r="D18">
+        <v>0.9980347295543945</v>
+      </c>
+      <c r="E18">
+        <v>0.9910885936214049</v>
+      </c>
+      <c r="F18">
+        <v>0.9893510595467532</v>
+      </c>
+      <c r="G18">
+        <v>0.9923287446189193</v>
+      </c>
+      <c r="H18">
+        <v>0.9846493877629974</v>
+      </c>
+      <c r="I18">
+        <v>0.9902983081668018</v>
+      </c>
+      <c r="J18">
+        <v>0.9980347295543945</v>
+      </c>
+      <c r="K18">
+        <v>0.9945616615878997</v>
+      </c>
+      <c r="L18">
+        <v>0.9919563605673265</v>
+      </c>
+      <c r="M18">
+        <v>0.9909584705452117</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9888161938134855</v>
+      </c>
+      <c r="D19">
+        <v>1.004513349273281</v>
+      </c>
+      <c r="E19">
+        <v>0.9886897954349229</v>
+      </c>
+      <c r="F19">
+        <v>0.9888161938134855</v>
+      </c>
+      <c r="G19">
+        <v>0.9993333435874322</v>
+      </c>
+      <c r="H19">
+        <v>0.9801588706975204</v>
+      </c>
+      <c r="I19">
+        <v>0.9886335434724505</v>
+      </c>
+      <c r="J19">
+        <v>1.004513349273281</v>
+      </c>
+      <c r="K19">
+        <v>0.9966015723541017</v>
+      </c>
+      <c r="L19">
+        <v>0.9927088830837937</v>
+      </c>
+      <c r="M19">
+        <v>0.9916908493798487</v>
       </c>
     </row>
   </sheetData>
